--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810B633-C3B9-4D8B-B0EE-6CE936331702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BD83DA-CB90-4479-BB8E-1A16B477C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
   <si>
     <t>Name</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>#Create custom ID</t>
+  </si>
+  <si>
+    <t>Use the survey metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
   </si>
 </sst>
 </file>
@@ -3246,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3316,6 +3319,11 @@
       </c>
       <c r="B17" s="120" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="120" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4556,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5562,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7061,8 +7069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BD83DA-CB90-4479-BB8E-1A16B477C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B2B96-5DC9-421A-88FE-2C4BFE0E24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="527">
   <si>
     <t>Name</t>
   </si>
@@ -1432,9 +1432,6 @@
     <t>PriorityDate</t>
   </si>
   <si>
-    <t>SummaryWRStatus</t>
-  </si>
-  <si>
     <t>data was made avaiable by a temporary google drive link.  Files were saved locacly and uploaded to GiHub.</t>
   </si>
   <si>
@@ -1616,6 +1613,15 @@
   </si>
   <si>
     <t>Use the survey metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
+  </si>
+  <si>
+    <t>WYwr_M1</t>
+  </si>
+  <si>
+    <t>WYwr_V1</t>
+  </si>
+  <si>
+    <t>WYwr_O1</t>
   </si>
 </sst>
 </file>
@@ -3251,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3282,7 +3288,7 @@
         <v>238</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,27 +3296,27 @@
         <v>239</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="120" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="120" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="120" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="120" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3318,12 +3324,12 @@
         <v>242</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="120" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3343,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -3600,7 +3606,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -3732,7 +3738,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3829,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4145,7 +4151,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,7 +4254,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4783,10 +4789,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H8" s="80"/>
       <c r="I8" s="73" t="s">
@@ -4810,7 +4816,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F9" s="126" t="s">
         <v>38</v>
@@ -4843,10 +4849,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="118" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="73" t="s">
@@ -5248,7 +5254,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>55</v>
@@ -5278,7 +5284,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>54</v>
@@ -5365,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5394,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>453</v>
@@ -5421,7 +5427,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>38</v>
@@ -5484,10 +5490,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H21" s="78"/>
       <c r="I21" s="77" t="s">
@@ -5570,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6276,13 +6282,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>506</v>
+        <v>436</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>463</v>
+        <v>38</v>
       </c>
       <c r="H23" s="85" t="s">
         <v>38</v>
@@ -6311,10 +6317,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H24" s="85" t="s">
         <v>38</v>
@@ -6343,7 +6349,7 @@
         <v>454</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G25" s="48" t="s">
         <v>461</v>
@@ -6375,7 +6381,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>462</v>
@@ -6500,7 +6506,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6567,10 +6573,10 @@
         <v>433</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H32" s="85" t="s">
         <v>38</v>
@@ -6817,10 +6823,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>506</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>507</v>
       </c>
       <c r="H40" s="82"/>
       <c r="I40" s="86" t="s">
@@ -6896,7 +6902,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6908,17 +6914,17 @@
         <v>20</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G43" s="131"/>
       <c r="H43" s="122" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="123" t="s">
+        <v>515</v>
+      </c>
+      <c r="J43" s="124" t="s">
         <v>516</v>
-      </c>
-      <c r="J43" s="124" t="s">
-        <v>517</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -7155,7 +7161,7 @@
         <v>353</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7295,7 +7301,7 @@
         <v>321</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C12" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7315,7 +7321,7 @@
         <v>276</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C13" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7463,7 +7469,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7477,7 +7483,7 @@
         <v>277</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7491,7 +7497,7 @@
         <v>288</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7505,7 +7511,7 @@
         <v>289</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C24" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7603,7 +7609,7 @@
         <v>294</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C31" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7673,7 +7679,7 @@
         <v>323</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C36" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7729,7 +7735,7 @@
         <v>300</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C40" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7743,7 +7749,7 @@
         <v>278</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C41" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7757,7 +7763,7 @@
         <v>301</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C42" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7771,7 +7777,7 @@
         <v>279</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C43" s="107" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7787,7 +7793,7 @@
         <v>302</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C44" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7819,7 +7825,7 @@
         <v>304</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C46" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7835,7 +7841,7 @@
         <v>324</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C47" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7963,7 +7969,7 @@
         <v>402</v>
       </c>
       <c r="B55" s="105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C55" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7979,7 +7985,7 @@
         <v>280</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7995,7 +8001,7 @@
         <v>281</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C57" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8011,7 +8017,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8027,7 +8033,7 @@
         <v>306</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8043,7 +8049,7 @@
         <v>325</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C60" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8123,7 +8129,7 @@
         <v>326</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C65" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8267,7 +8273,7 @@
         <v>327</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C74" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8283,7 +8289,7 @@
         <v>378</v>
       </c>
       <c r="B75" s="105" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C75" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8395,7 +8401,7 @@
         <v>328</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C82" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8443,7 +8449,7 @@
         <v>314</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C85" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8491,7 +8497,7 @@
         <v>394</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C88" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8523,7 +8529,7 @@
         <v>317</v>
       </c>
       <c r="B90" s="105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C90" s="107" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8571,7 +8577,7 @@
         <v>331</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C93" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8656,7 +8662,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E1" s="108"/>
       <c r="H1" s="108"/>
@@ -8858,14 +8864,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="110" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B41" s="110" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="110"/>
       <c r="D41" s="110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E41" s="110"/>
     </row>
@@ -8878,41 +8884,41 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B43" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="109" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B44" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B45" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="110"/>
       <c r="D45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="109" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B46" s="109" t="e">
         <v>#N/A</v>

--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B2B96-5DC9-421A-88FE-2C4BFE0E24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BD83DA-CB90-4479-BB8E-1A16B477C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
   <si>
     <t>Name</t>
   </si>
@@ -1432,6 +1432,9 @@
     <t>PriorityDate</t>
   </si>
   <si>
+    <t>SummaryWRStatus</t>
+  </si>
+  <si>
     <t>data was made avaiable by a temporary google drive link.  Files were saved locacly and uploaded to GiHub.</t>
   </si>
   <si>
@@ -1613,15 +1616,6 @@
   </si>
   <si>
     <t>Use the survey metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
-  </si>
-  <si>
-    <t>WYwr_M1</t>
-  </si>
-  <si>
-    <t>WYwr_V1</t>
-  </si>
-  <si>
-    <t>WYwr_O1</t>
   </si>
 </sst>
 </file>
@@ -3257,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3288,7 +3282,7 @@
         <v>238</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3296,27 +3290,27 @@
         <v>239</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="120" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="120" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="120" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="120" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,12 +3318,12 @@
         <v>242</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="120" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3337,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3446,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -3606,7 +3600,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -3738,7 +3732,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3835,7 +3829,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4151,7 +4145,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4254,7 +4248,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4789,10 +4783,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H8" s="80"/>
       <c r="I8" s="73" t="s">
@@ -4816,7 +4810,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F9" s="126" t="s">
         <v>38</v>
@@ -4849,10 +4843,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="118" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G10" s="119" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="73" t="s">
@@ -5254,7 +5248,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>55</v>
@@ -5284,7 +5278,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>54</v>
@@ -5371,7 +5365,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5400,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>453</v>
@@ -5427,7 +5421,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>38</v>
@@ -5490,10 +5484,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H21" s="78"/>
       <c r="I21" s="77" t="s">
@@ -5576,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6282,13 +6276,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>506</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="H23" s="85" t="s">
         <v>38</v>
@@ -6317,10 +6311,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>505</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>504</v>
       </c>
       <c r="H24" s="85" t="s">
         <v>38</v>
@@ -6349,7 +6343,7 @@
         <v>454</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G25" s="48" t="s">
         <v>461</v>
@@ -6381,7 +6375,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>462</v>
@@ -6506,7 +6500,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6573,10 +6567,10 @@
         <v>433</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H32" s="85" t="s">
         <v>38</v>
@@ -6823,10 +6817,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H40" s="82"/>
       <c r="I40" s="86" t="s">
@@ -6902,7 +6896,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6914,17 +6908,17 @@
         <v>20</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G43" s="131"/>
       <c r="H43" s="122" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="123" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J43" s="124" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -7161,7 +7155,7 @@
         <v>353</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C5" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7301,7 +7295,7 @@
         <v>321</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C12" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7321,7 +7315,7 @@
         <v>276</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C13" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7469,7 +7463,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C21" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7483,7 +7477,7 @@
         <v>277</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C22" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7497,7 +7491,7 @@
         <v>288</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C23" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7511,7 +7505,7 @@
         <v>289</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C24" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7609,7 +7603,7 @@
         <v>294</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C31" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7679,7 +7673,7 @@
         <v>323</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C36" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7735,7 +7729,7 @@
         <v>300</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C40" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7749,7 +7743,7 @@
         <v>278</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C41" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7763,7 +7757,7 @@
         <v>301</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C42" s="107" t="str">
         <f t="shared" si="0"/>
@@ -7777,7 +7771,7 @@
         <v>279</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C43" s="107" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7793,7 +7787,7 @@
         <v>302</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C44" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7825,7 +7819,7 @@
         <v>304</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C46" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7841,7 +7835,7 @@
         <v>324</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C47" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7969,7 +7963,7 @@
         <v>402</v>
       </c>
       <c r="B55" s="105" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C55" s="107" t="str">
         <f t="shared" si="1"/>
@@ -7985,7 +7979,7 @@
         <v>280</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C56" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8001,7 +7995,7 @@
         <v>281</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C57" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8017,7 +8011,7 @@
         <v>305</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C58" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8033,7 +8027,7 @@
         <v>306</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C59" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8049,7 +8043,7 @@
         <v>325</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C60" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8129,7 +8123,7 @@
         <v>326</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C65" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8273,7 +8267,7 @@
         <v>327</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C74" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8289,7 +8283,7 @@
         <v>378</v>
       </c>
       <c r="B75" s="105" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C75" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8401,7 +8395,7 @@
         <v>328</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C82" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8449,7 +8443,7 @@
         <v>314</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C85" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8497,7 +8491,7 @@
         <v>394</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C88" s="107" t="str">
         <f t="shared" si="1"/>
@@ -8529,7 +8523,7 @@
         <v>317</v>
       </c>
       <c r="B90" s="105" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C90" s="107" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8577,7 +8571,7 @@
         <v>331</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C93" s="107" t="str">
         <f t="shared" si="2"/>
@@ -8662,7 +8656,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="108" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E1" s="108"/>
       <c r="H1" s="108"/>
@@ -8864,14 +8858,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="110" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B41" s="110" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="110"/>
       <c r="D41" s="110" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E41" s="110"/>
     </row>
@@ -8884,41 +8878,41 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B43" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="109" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B44" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="109" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B45" s="109" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="110"/>
       <c r="D45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B46" s="109" t="e">
         <v>#N/A</v>

--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BD83DA-CB90-4479-BB8E-1A16B477C55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917A883-5D43-4E72-A807-013749FCE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -1363,15 +1363,9 @@
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
-    <t>WY_Consumptive Use</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>WWDO</t>
-  </si>
-  <si>
     <t>Wyoming Water Development Office</t>
   </si>
   <si>
@@ -1411,9 +1405,6 @@
     <t>WYwr_S + Counter</t>
   </si>
   <si>
-    <t>WY_Water Allocation</t>
-  </si>
-  <si>
     <t>*get form watersource.csv</t>
   </si>
   <si>
@@ -1616,6 +1607,15 @@
   </si>
   <si>
     <t>Use the survey metadata, and anything with a Z in it also has a beneficial use = Wild and Scenic River</t>
+  </si>
+  <si>
+    <t>WYwr_M1</t>
+  </si>
+  <si>
+    <t>WYwr_V1</t>
+  </si>
+  <si>
+    <t>WYwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2481,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2603,9 +2603,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2676,9 +2673,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2768,9 +2762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3251,79 +3242,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="120" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" style="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="117" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="120" t="s">
-        <v>443</v>
+      <c r="B2" s="117" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>464</v>
+      <c r="B4" s="99" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="118" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="117" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="117" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="117" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="120" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="117" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="120" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="120" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="120" t="s">
-        <v>514</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="120" t="s">
-        <v>509</v>
+      <c r="B17" s="117" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="120" t="s">
-        <v>524</v>
+      <c r="B18" s="117" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -3337,7 +3328,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3356,32 +3347,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3407,54 +3398,54 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="73">
+      <c r="E3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="71">
         <v>11</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>456</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="73" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="72" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3471,22 +3462,22 @@
       <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="73" t="s">
+      <c r="F5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="72" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3503,22 +3494,22 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="75">
+      <c r="F6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="73">
         <v>0.5</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3535,22 +3526,22 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="74" t="s">
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="72" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3567,22 +3558,22 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="76" t="s">
+      <c r="F8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="72" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3599,20 +3590,20 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="74" t="s">
+      <c r="E9" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="72" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3629,22 +3620,22 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="73" t="s">
+      <c r="F10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="72" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3661,22 +3652,22 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="88" t="s">
         <v>438</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="73" t="s">
+      <c r="F11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="72" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3693,30 +3684,30 @@
       <c r="D12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="73" t="s">
+      <c r="F12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="72" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="89"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="89"/>
+      <c r="E17" s="87"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
@@ -3732,7 +3723,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3805,13 +3796,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="73">
+      <c r="H3" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="71">
         <v>16</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3828,8 +3819,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="98" t="s">
-        <v>440</v>
+      <c r="E4" s="89" t="s">
+        <v>523</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3837,13 +3828,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="73" t="s">
+      <c r="H4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="72" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3860,18 +3851,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="96">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="73">
+      <c r="H5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="71">
         <v>1</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="72" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3888,22 +3879,22 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="99" t="s">
-        <v>441</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="73" t="s">
+      <c r="E6" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3920,22 +3911,22 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="72" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3952,22 +3943,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="73" t="s">
+      <c r="F8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="72" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3984,22 +3975,22 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="73" t="s">
+      <c r="F9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4016,22 +4007,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="96">
         <v>11</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="73">
+      <c r="F10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="71">
         <v>10</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="72" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4048,22 +4039,22 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="73" t="s">
+      <c r="F11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="72" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4080,22 +4071,22 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="73" t="s">
+      <c r="F12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="72" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4112,22 +4103,22 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="73" t="s">
+      <c r="F13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="72" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4145,7 +4136,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4224,13 +4215,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="77">
+      <c r="H3" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="75">
         <v>1</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4247,8 +4238,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>442</v>
+      <c r="E4" s="89" t="s">
+        <v>524</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4256,13 +4247,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="72" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4279,8 +4270,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="103" t="s">
-        <v>447</v>
+      <c r="E5" s="100" t="s">
+        <v>445</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4288,13 +4279,13 @@
       <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="72" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4311,22 +4302,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="77" t="s">
+      <c r="E6" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4343,22 +4334,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>448</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="77" t="s">
+      <c r="E7" s="97" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="72" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4375,22 +4366,22 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="101" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="77" t="s">
+      <c r="E8" s="98" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="72" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4407,22 +4398,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="77" t="s">
+      <c r="E9" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="72" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4439,22 +4430,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>450</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="77" t="s">
+      <c r="E10" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="72" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4471,22 +4462,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="103" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="77" t="s">
+      <c r="E11" s="100" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="72" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4504,21 +4495,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="72" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4584,32 +4575,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4637,42 +4628,42 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="73">
+      <c r="G3" s="64"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="71">
         <v>34658</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="122" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="73" t="s">
+      <c r="C4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="I4" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="125" t="s">
+      <c r="J4" s="122" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4689,20 +4680,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="125" t="s">
+      <c r="F5" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="122" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4719,20 +4710,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="F6" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="125" t="s">
+      <c r="F6" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="122" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4749,20 +4740,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="122" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4782,17 +4773,17 @@
       <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="73" t="s">
+      <c r="F8" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="J8" s="122" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4809,50 +4800,50 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="126" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="73">
+      <c r="E9" s="123" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="71">
         <v>17839</v>
       </c>
-      <c r="J9" s="125" t="s">
+      <c r="J9" s="122" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="135" t="s">
+      <c r="C10" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>506</v>
-      </c>
-      <c r="G10" s="119" t="s">
-        <v>518</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="73" t="s">
+      <c r="E10" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>515</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="125" t="s">
+      <c r="J10" s="122" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4897,32 +4888,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4957,39 +4948,39 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="77">
+      <c r="H3" s="76"/>
+      <c r="I3" s="75">
         <v>39035</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>455</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="129" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="76"/>
+      <c r="I4" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="72" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5007,19 +4998,19 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="72" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5037,19 +5028,19 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5069,17 +5060,17 @@
       <c r="E7" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="81" t="s">
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5096,20 +5087,20 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="42">
         <v>4326</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="77" t="s">
+      <c r="F8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="72" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5129,15 +5120,15 @@
       <c r="E9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="74" t="s">
+      <c r="F9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="72" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5157,17 +5148,17 @@
       <c r="E10" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="74" t="s">
+      <c r="F10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="72" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5187,17 +5178,17 @@
       <c r="E11" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="81" t="s">
+      <c r="F11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5217,17 +5208,17 @@
       <c r="E12" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="81" t="s">
+      <c r="F12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5247,17 +5238,17 @@
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G13" s="47" t="s">
+      <c r="F13" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="77" t="s">
+      <c r="H13" s="80"/>
+      <c r="I13" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="72" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5277,17 +5268,17 @@
       <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G14" s="47" t="s">
+      <c r="F14" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="77">
+      <c r="H14" s="80"/>
+      <c r="I14" s="75">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="72" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5307,17 +5298,17 @@
       <c r="E15" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="74" t="s">
+      <c r="F15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="72" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5337,17 +5328,17 @@
       <c r="E16" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="74" t="s">
+      <c r="F16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="72" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5364,8 +5355,8 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>506</v>
+      <c r="E17" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5373,11 +5364,11 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84" t="s">
+      <c r="H17" s="81"/>
+      <c r="I17" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="83"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -5393,17 +5384,17 @@
       <c r="E18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>506</v>
+      <c r="F18" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H18" s="76"/>
+      <c r="I18" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="72" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5421,19 +5412,19 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="77">
+        <v>517</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="75">
         <v>3703994</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="72" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5453,17 +5444,17 @@
       <c r="E20" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="77" t="s">
+      <c r="F20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="76"/>
+      <c r="I20" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="J20" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5483,17 +5474,17 @@
       <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>506</v>
+      <c r="F21" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="77" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="72" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5511,19 +5502,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="76"/>
+      <c r="I22" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="72" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5543,17 +5534,17 @@
       <c r="E23" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="81" t="s">
+      <c r="F23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5570,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5590,32 +5581,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5644,13 +5635,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="77">
+      <c r="H3" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="75">
         <v>50004</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5676,13 +5667,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="77">
+      <c r="H4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="75">
         <v>43</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5708,13 +5699,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="77">
+      <c r="H5" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="75">
         <v>1</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5740,13 +5731,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="77">
+      <c r="H6" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="75">
         <v>39035</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5772,13 +5763,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="77">
+      <c r="H7" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="75">
         <v>63</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5804,17 +5795,17 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="77">
+      <c r="H8" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="75">
         <v>371091</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="72" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
@@ -5827,8 +5818,8 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>456</v>
+      <c r="E9" s="89" t="s">
+        <v>522</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -5836,13 +5827,13 @@
       <c r="G9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="74" t="s">
+      <c r="H9" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="72" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5859,8 +5850,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>442</v>
+      <c r="E10" s="65" t="s">
+        <v>524</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5868,13 +5859,13 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="74" t="s">
+      <c r="H10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="72" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5891,8 +5882,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>458</v>
+      <c r="E11" s="42" t="s">
+        <v>455</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5900,17 +5891,17 @@
       <c r="G11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="H11" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="72" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
@@ -5923,8 +5914,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>440</v>
+      <c r="E12" s="89" t="s">
+        <v>523</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5932,45 +5923,45 @@
       <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="72" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="74" t="s">
+      <c r="C13" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="72" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5996,13 +5987,13 @@
       <c r="G14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="77">
+      <c r="H14" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="75">
         <v>5363</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="72" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6028,13 +6019,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="77" t="s">
+      <c r="H15" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="J15" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6060,13 +6051,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="77" t="s">
+      <c r="H16" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6092,13 +6083,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="77" t="s">
+      <c r="H17" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="72" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6124,13 +6115,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="77" t="s">
+      <c r="H18" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="81" t="s">
+      <c r="J18" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6156,13 +6147,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="77" t="s">
+      <c r="H19" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="72" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6188,13 +6179,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="81" t="s">
+      <c r="H20" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6220,18 +6211,18 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="77">
+      <c r="H21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="75">
         <v>5200</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="72" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="69" t="s">
         <v>243</v>
       </c>
       <c r="B22" s="36" t="s">
@@ -6252,13 +6243,13 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="77">
+      <c r="H22" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="75">
         <v>1</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="72" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6278,19 +6269,19 @@
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>506</v>
+      <c r="F23" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="H23" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="72" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6310,19 +6301,19 @@
       <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="H24" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="77" t="s">
+      <c r="F24" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="74" t="s">
+      <c r="J24" s="72" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6340,21 +6331,21 @@
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="H25" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="77" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="74" t="s">
+      <c r="J25" s="72" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6374,19 +6365,19 @@
       <c r="E26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="H26" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="77" t="s">
+      <c r="F26" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="72" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6412,13 +6403,13 @@
       <c r="G27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="74" t="s">
+      <c r="H27" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="72" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6436,7 +6427,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6444,13 +6435,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="87">
+      <c r="H28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="85">
         <v>44196</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="72" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6468,7 +6459,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6476,13 +6467,13 @@
       <c r="G29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="87">
+      <c r="H29" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="85">
         <v>43831</v>
       </c>
-      <c r="J29" s="74" t="s">
+      <c r="J29" s="72" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6500,7 +6491,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6508,18 +6499,18 @@
       <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="77" t="s">
+      <c r="H30" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="72" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="69" t="s">
         <v>244</v>
       </c>
       <c r="B31" s="36" t="s">
@@ -6540,13 +6531,13 @@
       <c r="G31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="77">
+      <c r="H31" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="75">
         <v>0</v>
       </c>
-      <c r="J31" s="74" t="s">
+      <c r="J31" s="72" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6563,22 +6554,22 @@
       <c r="D32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="F32" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="H32" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="74" t="s">
+      <c r="F32" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="72" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6604,13 +6595,13 @@
       <c r="G33" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="77" t="s">
+      <c r="H33" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="81" t="s">
+      <c r="J33" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6636,13 +6627,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="77" t="s">
+      <c r="H34" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="74" t="s">
+      <c r="J34" s="72" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6668,13 +6659,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="77" t="s">
+      <c r="H35" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="74" t="s">
+      <c r="J35" s="72" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6691,8 +6682,8 @@
       <c r="D36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="130">
-        <v>44350</v>
+      <c r="E36" s="127">
+        <v>44644</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6700,13 +6691,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="88">
+      <c r="H36" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="86">
         <v>43874</v>
       </c>
-      <c r="J36" s="74" t="s">
+      <c r="J36" s="72" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6732,18 +6723,18 @@
       <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="88">
+      <c r="H37" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="86">
         <v>33187</v>
       </c>
-      <c r="J37" s="81" t="s">
+      <c r="J37" s="79" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="69" t="s">
         <v>245</v>
       </c>
       <c r="B38" s="36" t="s">
@@ -6764,9 +6755,9 @@
       <c r="G38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="81"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
@@ -6790,13 +6781,13 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="74" t="s">
+      <c r="H39" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6817,16 +6808,16 @@
         <v>38</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="H40" s="80"/>
+      <c r="I40" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="72" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6852,13 +6843,13 @@
       <c r="G41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="77" t="s">
+      <c r="H41" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="74" t="s">
+      <c r="J41" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6884,19 +6875,19 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="81" t="s">
+      <c r="H42" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="79" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6908,17 +6899,17 @@
         <v>20</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="G43" s="131"/>
-      <c r="H43" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="123" t="s">
-        <v>516</v>
-      </c>
-      <c r="J43" s="124" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="G43" s="128"/>
+      <c r="H43" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="J43" s="121" t="s">
+        <v>514</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6949,13 +6940,13 @@
       <c r="G44" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="74" t="s">
+      <c r="H44" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="72" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6981,13 +6972,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="77" t="s">
+      <c r="H45" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="81" t="s">
+      <c r="J45" s="79" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7005,7 +6996,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7013,13 +7004,13 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="77" t="s">
+      <c r="H46" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="74" t="s">
+      <c r="J46" s="72" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7045,13 +7036,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="77" t="s">
+      <c r="H47" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="74" t="s">
+      <c r="J47" s="72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7081,1548 +7072,1548 @@
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="95" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="101" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="92"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="107" t="str">
+      <c r="C3" s="104" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"AESCNG" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="95" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="93" t="s">
         <v>403</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="93" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="104" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"AESFIS" : "Fish Propagation (Aesthetics)",</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="95" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="93" t="s">
         <v>405</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="93" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="105" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="107" t="str">
+      <c r="B5" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AESGWR" : "Ground Water Recharge (Aesthetics)",</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="95" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="93" t="s">
         <v>407</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="93" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="102" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AESREC" : "Recreation (Aesthetics)",</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="95" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="93" t="s">
         <v>409</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="93" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="102" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="107" t="str">
+      <c r="C7" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AESSTK" : "Stock (Aesthetics)",</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="95" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="93" t="s">
         <v>411</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="93" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="93" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="102" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="107" t="str">
+      <c r="C8" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AESWET" : "Wetlands (Aesthetics)",</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="95" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="93" t="s">
         <v>413</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="93" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="93" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="102" t="s">
         <v>400</v>
       </c>
-      <c r="C9" s="107" t="str">
+      <c r="C9" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AESWIL" : "Wildlife (Aesthetics)",</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="93" t="s">
         <v>415</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="93" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="C10" s="107" t="str">
+      <c r="C10" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"AQU" : "Aquaculture",</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="95" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="93" t="s">
         <v>417</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="93" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="102" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="107" t="str">
+      <c r="C11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"BOT" : "Bottling Water",</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="95" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="93" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="93" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="107" t="str">
+      <c r="B12" s="102" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CAG" : "Commercial Agriculture",</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="95" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="93" t="s">
         <v>421</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="93" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>469</v>
-      </c>
-      <c r="C13" s="107" t="str">
+      <c r="B13" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="95" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="93" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="107" t="str">
+      <c r="C14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CHE" : "Chemical",</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="95" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="93" t="s">
         <v>424</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="93" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="107" t="str">
+      <c r="C15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CIS" : "Consumptive Instream Flow",</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="95" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="93" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="107" t="str">
+      <c r="C16" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CMU" : "Combined Uses",</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="95" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="93" t="s">
         <v>428</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="93" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="107" t="str">
+      <c r="C17" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CNG_SW" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="95" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="93" t="s">
         <v>430</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="93" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="107" t="str">
+      <c r="C18" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"COM" : "Commercial",</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="95" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="93" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="C19" s="107" t="str">
+      <c r="C19" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"CUL" : "Culinary",</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DAI" : "Dairy",</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="105" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="107" t="str">
+      <c r="B21" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DEW" : "Mine Dewatering",</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="107" t="str">
+      <c r="B22" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_GW" : "Domestic - Ground Water",</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>472</v>
-      </c>
-      <c r="C23" s="107" t="str">
+      <c r="B23" s="102" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_SW" : "Domestic - Surface Water",</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="B24" s="105" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" s="107" t="str">
+      <c r="B24" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DPA" : "Domestic (Phase 2 Award)",</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="107" t="str">
+      <c r="C25" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DRI" : "Drilling",</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="107" t="str">
+      <c r="C26" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DSP" : "Domestic Supply",</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="93" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="107" t="str">
+      <c r="C27" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"DTA" : "Dust Abatement",</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="102" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="107" t="str">
+      <c r="C28" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"ECAP" : "Existing Capacity",</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="107" t="str">
+      <c r="C29" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"ERO" : "Erosion Control",</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="107" t="str">
+      <c r="C30" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"FIR" : "Fire Protection",</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="105" t="s">
-        <v>474</v>
-      </c>
-      <c r="C31" s="107" t="str">
+      <c r="B31" s="102" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"FIS" : "Fish Propagation",</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="107" t="str">
+      <c r="C32" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"FLO" : "Flood Control",</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="102" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="107" t="str">
+      <c r="C33" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"FTH" : "Flow Through",</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="107" t="str">
+      <c r="C34" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"GWR" : "Ground Water Recharge",</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="102" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="107" t="str">
+      <c r="C35" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"HEX" : "Heat Extraction",</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="B36" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="C36" s="107" t="str">
+      <c r="B36" s="102" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"HWY" : "Highway Construction",</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="C37" s="107" t="str">
+      <c r="C37" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"HYD" : "Hydropower",</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="102" t="s">
         <v>386</v>
       </c>
-      <c r="C38" s="107" t="str">
+      <c r="C38" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"HYT" : "Hydrostatic Testing",</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="102" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="107" t="str">
+      <c r="C39" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"ICE" : "Ice Cutting",</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="B40" s="105" t="s">
-        <v>476</v>
-      </c>
-      <c r="C40" s="107" t="str">
+      <c r="B40" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"IFA" : "Instream Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="C41" s="107" t="str">
+      <c r="B41" s="102" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"IND_GW" : "Industrial - Ground Water",</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="C42" s="107" t="str">
+      <c r="B42" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="104" t="str">
         <f t="shared" si="0"/>
         <v>"IND_SW" : "Industrial - Surface Water",</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="105" t="s">
-        <v>479</v>
-      </c>
-      <c r="C43" s="107" t="str">
+      <c r="B43" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="104" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
         <v>"IRR_GW" : "Irrigation - Ground Water",</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="G43" s="41"/>
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="105" t="s">
-        <v>480</v>
-      </c>
-      <c r="C44" s="107" t="str">
+      <c r="B44" s="102" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"IRR_SW" : "Irrigation - Surface Water",</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="C45" s="107" t="str">
+      <c r="C45" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"ISF" : "Instream Flow",</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="G45" s="41"/>
       <c r="H45"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="105" t="s">
-        <v>481</v>
-      </c>
-      <c r="C46" s="107" t="str">
+      <c r="B46" s="102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"LAK" : "Maintain Natural Lake Level (Phase 2 Award)",</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="95" t="s">
+      <c r="A47" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="105" t="s">
-        <v>482</v>
-      </c>
-      <c r="C47" s="107" t="str">
+      <c r="B47" s="102" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"LAW" : "Large Scale Landscape",</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="G47" s="41"/>
       <c r="H47"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="102" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="107" t="str">
+      <c r="C48" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MAI" : "Maintenance (Equipment Washing)",</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="C49" s="107" t="str">
+      <c r="C49" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MAN" : "Manufacturing",</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="G49" s="41"/>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="102" t="s">
         <v>346</v>
       </c>
-      <c r="C50" s="107" t="str">
+      <c r="C50" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MEC" : "Mechanical ",</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="102" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="107" t="str">
+      <c r="C51" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MED" : "Medicinal",</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="G51" s="41"/>
       <c r="H51"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="102" t="s">
         <v>388</v>
       </c>
-      <c r="C52" s="107" t="str">
+      <c r="C52" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MEM" : "Municipal (Emergency)",</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="102" t="s">
         <v>361</v>
       </c>
-      <c r="C53" s="107" t="str">
+      <c r="C53" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MIL" : "Milling",</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="C54" s="107" t="str">
+      <c r="C54" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MIN" : "Mining",</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="105" t="s">
-        <v>483</v>
-      </c>
-      <c r="C55" s="107" t="str">
+      <c r="B55" s="102" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MIS" : "Miscellaneous - Ground Water",</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="95" t="s">
+      <c r="A56" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="105" t="s">
-        <v>484</v>
-      </c>
-      <c r="C56" s="107" t="str">
+      <c r="B56" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MON" : "Monitor",</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="93" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="105" t="s">
-        <v>485</v>
-      </c>
-      <c r="C57" s="107" t="str">
+      <c r="B57" s="102" t="s">
+        <v>482</v>
+      </c>
+      <c r="C57" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_GW" : "Municipal - Ground Water",</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="B58" s="105" t="s">
-        <v>486</v>
-      </c>
-      <c r="C58" s="107" t="str">
+      <c r="B58" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_SW" : "Municipal - Surface Water",</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="B59" s="105" t="s">
-        <v>487</v>
-      </c>
-      <c r="C59" s="107" t="str">
+      <c r="B59" s="102" t="s">
+        <v>484</v>
+      </c>
+      <c r="C59" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"NAT" : "Natural Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="105" t="s">
-        <v>488</v>
-      </c>
-      <c r="C60" s="107" t="str">
+      <c r="B60" s="102" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"O&amp;G" : "Oil and Gas Well Drilling",</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="B61" s="105" t="s">
+      <c r="B61" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="107" t="str">
+      <c r="C61" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"OTH" : "Other",</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="B62" s="105" t="s">
+      <c r="B62" s="102" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="107" t="str">
+      <c r="C62" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_CM" : "Other - Commercial",</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="C63" s="107" t="str">
+      <c r="C63" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_IN" : "Other - Industrial",</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="B64" s="105" t="s">
+      <c r="B64" s="102" t="s">
         <v>390</v>
       </c>
-      <c r="C64" s="107" t="str">
+      <c r="C64" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_TM" : "Other - Temporary",</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="93" t="s">
         <v>326</v>
       </c>
-      <c r="B65" s="105" t="s">
-        <v>489</v>
-      </c>
-      <c r="C65" s="107" t="str">
+      <c r="B65" s="102" t="s">
+        <v>486</v>
+      </c>
+      <c r="C65" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"P&amp;S" : "Potable and Sanitary Supply",</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="G65" s="41"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="95" t="s">
+      <c r="A66" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B66" s="105" t="s">
+      <c r="B66" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="C66" s="107" t="str">
+      <c r="C66" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"PCT" : "Pollution Control",</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="102" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="107" t="str">
+      <c r="C67" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"POW" : "Power",</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="95" t="s">
+      <c r="A68" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="B68" s="105" t="s">
+      <c r="B68" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="107" t="str">
+      <c r="C68" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"RAI" : "Railroad",</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="G68" s="41"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="B69" s="105" t="s">
+      <c r="B69" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="107" t="str">
+      <c r="C69" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"RDC" : "Road Construction",</v>
       </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="G69" s="42"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="G69" s="41"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="95" t="s">
+      <c r="A70" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="B70" s="105" t="s">
+      <c r="B70" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="107" t="str">
+      <c r="C70" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"REC" : "Recreation",</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="G70" s="42"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="G70" s="41"/>
       <c r="H70"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="B71" s="105" t="s">
+      <c r="B71" s="102" t="s">
         <v>371</v>
       </c>
-      <c r="C71" s="107" t="str">
+      <c r="C71" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"REF" : "Refining",</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="G71" s="42"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="G71" s="41"/>
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="105" t="s">
+      <c r="B72" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="C72" s="107" t="str">
+      <c r="C72" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"RES" : "Reservoir Supply",</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="G72" s="42"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="G72" s="41"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="B73" s="105" t="s">
+      <c r="B73" s="102" t="s">
         <v>373</v>
       </c>
-      <c r="C73" s="107" t="str">
+      <c r="C73" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"REW" : "Reclamation Watering",</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="G73" s="42"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="G73" s="41"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="105" t="s">
-        <v>490</v>
-      </c>
-      <c r="C74" s="107" t="str">
+      <c r="B74" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SDG" : "Gpm For Domestic or Stock",</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="G74" s="42"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="G74" s="41"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="93" t="s">
         <v>378</v>
       </c>
-      <c r="B75" s="105" t="s">
-        <v>491</v>
-      </c>
-      <c r="C75" s="107" t="str">
+      <c r="B75" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SDU" : "Stock and Domestic",</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="G75" s="42"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="G75" s="41"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="105" t="s">
+      <c r="B76" s="102" t="s">
         <v>375</v>
       </c>
-      <c r="C76" s="107" t="str">
+      <c r="C76" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SED" : "Sediment Control",</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="G76" s="42"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="G76" s="41"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="105" t="s">
+      <c r="B77" s="102" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="107" t="str">
+      <c r="C77" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SNO" : "Snow Making",</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="G77" s="42"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="G77" s="41"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="105" t="s">
+      <c r="B78" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="C78" s="107" t="str">
+      <c r="C78" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"STE" : "Stream",</v>
       </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="G78" s="42"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="G78" s="41"/>
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="B79" s="105" t="s">
+      <c r="B79" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="107" t="str">
+      <c r="C79" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"STK" : "Stock Watering",</v>
       </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="G79" s="42"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="G79" s="41"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="95" t="s">
+      <c r="A80" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="105" t="s">
+      <c r="B80" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="107" t="str">
+      <c r="C80" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"STO" : "Stock",</v>
       </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="G80" s="42"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="G80" s="41"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="B81" s="105" t="s">
+      <c r="B81" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="107" t="str">
+      <c r="C81" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"STW" : "Stock Watering",</v>
       </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="G81" s="42"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="G81" s="41"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="95" t="s">
+      <c r="A82" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="B82" s="105" t="s">
-        <v>492</v>
-      </c>
-      <c r="C82" s="107" t="str">
+      <c r="B82" s="102" t="s">
+        <v>489</v>
+      </c>
+      <c r="C82" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SWD" : "Subdivision",</v>
       </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="G82" s="42"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="G82" s="41"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="105" t="s">
+      <c r="B83" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="107" t="str">
+      <c r="C83" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"SWP" : "Stock Water Pipeline",</v>
       </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="G83" s="42"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="G83" s="41"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="B84" s="105" t="s">
+      <c r="B84" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="107" t="str">
+      <c r="C84" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"TEM" : "Temporary",</v>
       </c>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="G84" s="42"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="G84" s="41"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="93" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="105" t="s">
-        <v>467</v>
-      </c>
-      <c r="C85" s="107" t="str">
+      <c r="B85" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="C85" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"TENL" : "Total Enlargement",</v>
       </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="G85" s="42"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="G85" s="41"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="93" t="s">
         <v>315</v>
       </c>
-      <c r="B86" s="105" t="s">
+      <c r="B86" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="107" t="str">
+      <c r="C86" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"TRA" : "Transportation",</v>
       </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="G86" s="42"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="G86" s="41"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="105" t="s">
+      <c r="B87" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="107" t="str">
+      <c r="C87" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"TST" : "Test Well",</v>
       </c>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="G87" s="42"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="G87" s="41"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="95" t="s">
+      <c r="A88" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="B88" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="C88" s="107" t="str">
+      <c r="B88" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="C88" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"TWR" : "Tree Watering",</v>
       </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="G88" s="42"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="G88" s="41"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="95" t="s">
+      <c r="A89" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B89" s="105" t="s">
+      <c r="B89" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="C89" s="107" t="str">
+      <c r="C89" s="104" t="str">
         <f t="shared" si="1"/>
         <v>"UTL" : "Utilities",</v>
       </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="G89" s="42"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="G89" s="41"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="95" t="s">
+      <c r="A90" s="93" t="s">
         <v>317</v>
       </c>
-      <c r="B90" s="105" t="s">
-        <v>494</v>
-      </c>
-      <c r="C90" s="107" t="str">
+      <c r="B90" s="102" t="s">
+        <v>491</v>
+      </c>
+      <c r="C90" s="104" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
         <v>"W&amp;S" : "Wild and Scenic",</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="G90" s="42"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="G90" s="41"/>
       <c r="H90"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="93" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="105" t="s">
+      <c r="B91" s="102" t="s">
         <v>396</v>
       </c>
-      <c r="C91" s="107" t="str">
+      <c r="C91" s="104" t="str">
         <f t="shared" si="2"/>
         <v>"WDR" : "Well Drilling",</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="G91" s="42"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="G91" s="41"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="B92" s="105" t="s">
+      <c r="B92" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="C92" s="107" t="str">
+      <c r="C92" s="104" t="str">
         <f t="shared" si="2"/>
         <v>"WET" : "Wetlands",</v>
       </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="G92" s="42"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="G92" s="41"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="95" t="s">
+      <c r="A93" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="B93" s="105" t="s">
-        <v>495</v>
-      </c>
-      <c r="C93" s="107" t="str">
+      <c r="B93" s="102" t="s">
+        <v>492</v>
+      </c>
+      <c r="C93" s="104" t="str">
         <f t="shared" si="2"/>
         <v>"WHL" : "Water Hauls",</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="G93" s="42"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="G93" s="41"/>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="B94" s="105" t="s">
+      <c r="B94" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="107" t="str">
+      <c r="C94" s="104" t="str">
         <f t="shared" si="2"/>
         <v>"WL" : "Wildlife",</v>
       </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="G94" s="42"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="G94" s="41"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="96"/>
-      <c r="B95" s="96"/>
-      <c r="G95" s="42"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="94"/>
+      <c r="G95" s="41"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="96"/>
-      <c r="B96" s="96"/>
-      <c r="G96" s="42"/>
+      <c r="A96" s="94"/>
+      <c r="B96" s="94"/>
+      <c r="G96" s="41"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="96"/>
-      <c r="B97" s="96"/>
-      <c r="G97" s="42"/>
+      <c r="A97" s="94"/>
+      <c r="B97" s="94"/>
+      <c r="G97" s="41"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="96"/>
-      <c r="B98" s="96"/>
+      <c r="A98" s="94"/>
+      <c r="B98" s="94"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="96"/>
-      <c r="B99" s="96"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="94"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B94">
@@ -8655,11 +8646,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="A1" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8857,64 +8848,64 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="107" t="s">
+        <v>494</v>
+      </c>
+      <c r="B41" s="107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107" t="s">
+        <v>499</v>
+      </c>
+      <c r="E41" s="107"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="106" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43" s="106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="106" t="s">
+        <v>495</v>
+      </c>
+      <c r="B44" s="106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="106" t="s">
         <v>497</v>
       </c>
-      <c r="B41" s="110" t="e">
+      <c r="B45" s="106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="E41" s="110"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="110"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="109" t="s">
-        <v>501</v>
-      </c>
-      <c r="B43" s="109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
-        <v>498</v>
-      </c>
-      <c r="B44" s="109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="109" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" t="s">
         <v>500</v>
       </c>
-      <c r="B45" s="109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="110"/>
-      <c r="D45" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="109" t="s">
-        <v>499</v>
-      </c>
-      <c r="B46" s="109" t="e">
+      <c r="A46" s="106" t="s">
+        <v>496</v>
+      </c>
+      <c r="B46" s="106" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
@@ -8922,8 +8913,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="106"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2331">

--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917A883-5D43-4E72-A807-013749FCE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB794AF-ABD2-40F3-B65E-C00B6D00CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="624" yWindow="756" windowWidth="23040" windowHeight="12120" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="527">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -1616,6 +1613,15 @@
   </si>
   <si>
     <t>WYwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>WYwr_WR + counter</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2487,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2862,6 +2868,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3254,67 +3266,67 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="117" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="117" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="117" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="117" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="117" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3370,10 +3382,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3414,7 +3426,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3431,7 +3443,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -3443,10 +3455,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3463,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>38</v>
@@ -3478,7 +3490,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3495,7 +3507,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -3510,7 +3522,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3527,7 +3539,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>38</v>
@@ -3542,7 +3554,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3559,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>38</v>
@@ -3571,10 +3583,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3591,7 +3603,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>38</v>
@@ -3604,7 +3616,7 @@
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3621,7 +3633,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>38</v>
@@ -3636,7 +3648,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3653,7 +3665,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>38</v>
@@ -3668,7 +3680,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3685,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>38</v>
@@ -3700,7 +3712,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3765,10 +3777,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3803,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3820,7 +3832,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3835,7 +3847,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3863,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3880,7 +3892,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -3895,7 +3907,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3927,7 +3939,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3959,7 +3971,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3991,7 +4003,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4023,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4055,7 +4067,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4072,7 +4084,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>38</v>
@@ -4087,7 +4099,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4104,7 +4116,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>38</v>
@@ -4119,7 +4131,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4178,10 +4190,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4222,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4239,7 +4251,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4254,7 +4266,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4271,7 +4283,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4286,7 +4298,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4303,7 +4315,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -4318,7 +4330,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -4335,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>38</v>
@@ -4350,7 +4362,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
@@ -4367,7 +4379,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>38</v>
@@ -4382,7 +4394,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4399,7 +4411,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>38</v>
@@ -4414,7 +4426,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -4431,7 +4443,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>38</v>
@@ -4446,7 +4458,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4463,7 +4475,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="100" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>38</v>
@@ -4478,7 +4490,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4495,7 +4507,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>38</v>
@@ -4510,7 +4522,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -4598,10 +4610,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4634,7 +4646,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4651,7 +4663,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F4" s="109" t="s">
         <v>38</v>
@@ -4664,7 +4676,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4681,7 +4693,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5" s="111" t="s">
         <v>38</v>
@@ -4694,7 +4706,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4711,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F6" s="111" t="s">
         <v>38</v>
@@ -4724,7 +4736,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4754,7 +4766,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4774,17 +4786,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4801,7 +4813,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="123" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" s="123" t="s">
         <v>38</v>
@@ -4814,7 +4826,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4834,17 +4846,17 @@
         <v>38</v>
       </c>
       <c r="F10" s="115" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" s="116" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H10" s="78"/>
       <c r="I10" s="71" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,10 +4923,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4953,7 +4965,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4968,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>38</v>
@@ -4981,7 +4993,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4998,7 +5010,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>38</v>
@@ -5011,7 +5023,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5028,7 +5040,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>38</v>
@@ -5041,7 +5053,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5058,7 +5070,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" s="45" t="s">
         <v>38</v>
@@ -5071,7 +5083,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5101,7 +5113,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5118,7 +5130,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>38</v>
@@ -5129,7 +5141,7 @@
       <c r="H9" s="76"/>
       <c r="I9" s="75"/>
       <c r="J9" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -5146,7 +5158,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>38</v>
@@ -5159,7 +5171,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5176,7 +5188,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>38</v>
@@ -5189,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5206,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>38</v>
@@ -5219,7 +5231,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5239,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>55</v>
@@ -5249,7 +5261,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5269,7 +5281,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G14" s="46" t="s">
         <v>54</v>
@@ -5279,7 +5291,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5296,7 +5308,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>38</v>
@@ -5309,7 +5321,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5326,7 +5338,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>38</v>
@@ -5339,12 +5351,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -5356,7 +5368,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5366,7 +5378,7 @@
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5385,17 +5397,17 @@
         <v>38</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="75" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5412,7 +5424,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>38</v>
@@ -5425,7 +5437,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5442,7 +5454,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>38</v>
@@ -5455,7 +5467,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5475,17 +5487,17 @@
         <v>38</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="75" t="s">
         <v>121</v>
       </c>
       <c r="J21" s="72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5502,7 +5514,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>38</v>
@@ -5515,7 +5527,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5532,7 +5544,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>38</v>
@@ -5545,7 +5557,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5559,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5604,10 +5616,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5642,7 +5654,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5674,7 +5686,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5706,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5738,7 +5750,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5770,7 +5782,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5802,15 +5814,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>6</v>
+        <v>524</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -5818,28 +5830,18 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>522</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="72" t="s">
-        <v>189</v>
-      </c>
+      <c r="E9" s="134" t="s">
+        <v>526</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>67</v>
@@ -5850,8 +5852,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="65" t="s">
-        <v>524</v>
+      <c r="E10" s="133" t="s">
+        <v>521</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5866,12 +5868,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -5882,8 +5884,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>455</v>
+      <c r="E11" s="65" t="s">
+        <v>523</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5898,12 +5900,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>67</v>
@@ -5914,8 +5916,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="89" t="s">
-        <v>523</v>
+      <c r="E12" s="42" t="s">
+        <v>454</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5930,88 +5932,88 @@
         <v>38</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B14" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="C14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="67" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="75">
-        <v>5363</v>
+      <c r="I14" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6022,16 +6024,16 @@
       <c r="H15" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="79" t="s">
-        <v>159</v>
+      <c r="I15" s="75">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -6043,7 +6045,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6058,24 +6060,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6087,27 +6089,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6119,18 +6121,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>18</v>
@@ -6139,7 +6141,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6151,18 +6153,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="72" t="s">
-        <v>194</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>18</v>
@@ -6171,7 +6173,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6182,28 +6184,28 @@
       <c r="H20" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>159</v>
+      <c r="I20" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6214,28 +6216,28 @@
       <c r="H21" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="75">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="72" t="s">
-        <v>195</v>
+      <c r="I21" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
-        <v>243</v>
+      <c r="A22" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -6247,187 +6249,187 @@
         <v>38</v>
       </c>
       <c r="I22" s="75">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>503</v>
+        <v>435</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="H23" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="75" t="s">
-        <v>136</v>
+      <c r="I23" s="75">
+        <v>1</v>
       </c>
       <c r="J23" s="72" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="G24" s="47" t="s">
         <v>502</v>
       </c>
+      <c r="G24" s="32" t="s">
+        <v>459</v>
+      </c>
       <c r="H24" s="83" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J25" s="72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="72" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>18</v>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>458</v>
       </c>
       <c r="H27" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="84" t="s">
-        <v>38</v>
+      <c r="I27" s="75" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6438,16 +6440,16 @@
       <c r="H28" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="85">
-        <v>44196</v>
+      <c r="I28" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>106</v>
@@ -6459,7 +6461,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6471,27 +6473,27 @@
         <v>38</v>
       </c>
       <c r="I29" s="85">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6502,28 +6504,28 @@
       <c r="H30" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="75" t="s">
-        <v>133</v>
+      <c r="I30" s="85">
+        <v>43831</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="69" t="s">
-        <v>244</v>
+      <c r="A31" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -6534,92 +6536,92 @@
       <c r="H31" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="75">
+      <c r="I31" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="75">
         <v>0</v>
       </c>
-      <c r="J31" s="72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="H32" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="84" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="72" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>38</v>
+      <c r="E33" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>492</v>
       </c>
       <c r="H33" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6633,13 +6635,13 @@
       <c r="I34" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="72" t="s">
-        <v>231</v>
+      <c r="J34" s="79" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -6651,7 +6653,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6666,24 +6668,24 @@
         <v>133</v>
       </c>
       <c r="J35" s="72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="127">
-        <v>44644</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6694,51 +6696,51 @@
       <c r="H36" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="86">
-        <v>43874</v>
+      <c r="I36" s="75" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="72" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="127">
+        <v>44644</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="86">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="86">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>18</v>
@@ -6746,54 +6748,54 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="86">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="79"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>436</v>
-      </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="72" t="s">
-        <v>206</v>
-      </c>
+      <c r="H39" s="83"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="79"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6805,69 +6807,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>503</v>
+        <v>38</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="H40" s="80"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="83" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="84" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>38</v>
+        <v>502</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="75" t="s">
-        <v>133</v>
+        <v>503</v>
+      </c>
+      <c r="H41" s="80"/>
+      <c r="I41" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6878,93 +6880,93 @@
       <c r="H42" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="79" t="s">
-        <v>159</v>
+      <c r="I42" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="72" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="G44" s="128"/>
+      <c r="H44" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="G43" s="128"/>
-      <c r="H43" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="120" t="s">
+      <c r="J44" s="121" t="s">
         <v>513</v>
       </c>
-      <c r="J43" s="121" t="s">
-        <v>514</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="72" t="s">
-        <v>208</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6975,28 +6977,28 @@
       <c r="H45" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="79" t="s">
-        <v>159</v>
+      <c r="I45" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="72" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7008,47 +7010,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="72" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="79" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="75" t="s">
+      <c r="D48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="72" t="s">
-        <v>210</v>
+      <c r="J48" s="72" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7077,10 +7111,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="91" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G1" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7088,25 +7122,25 @@
         <v>140</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="92" t="s">
         <v>140</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="104" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -7115,18 +7149,18 @@
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="93" t="s">
+        <v>402</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>403</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>351</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>352</v>
       </c>
       <c r="C4" s="104" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7135,18 +7169,18 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>405</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7155,18 +7189,18 @@
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="93" t="s">
         <v>407</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="93" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="102" t="s">
         <v>379</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>380</v>
       </c>
       <c r="C6" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7175,18 +7209,18 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="93" t="s">
         <v>409</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>382</v>
       </c>
       <c r="C7" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7195,18 +7229,18 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="93" t="s">
         <v>411</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>397</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>398</v>
       </c>
       <c r="C8" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7215,18 +7249,18 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="93" t="s">
         <v>413</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="102" t="s">
         <v>399</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>400</v>
       </c>
       <c r="C9" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7235,18 +7269,18 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="93" t="s">
         <v>415</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="102" t="s">
         <v>333</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>334</v>
       </c>
       <c r="C10" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7255,18 +7289,18 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="93" t="s">
         <v>417</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="102" t="s">
         <v>335</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>336</v>
       </c>
       <c r="C11" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7275,18 +7309,18 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="93" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="93" t="s">
         <v>419</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7295,18 +7329,18 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="G12" s="93" t="s">
         <v>421</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7318,15 +7352,15 @@
         <v>138</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="102" t="s">
         <v>337</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>338</v>
       </c>
       <c r="C14" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7335,18 +7369,18 @@
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>424</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7355,18 +7389,18 @@
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="93" t="s">
         <v>426</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7375,18 +7409,18 @@
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="93" t="s">
         <v>428</v>
-      </c>
-      <c r="G16" s="93" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7395,18 +7429,18 @@
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="93" t="s">
         <v>430</v>
-      </c>
-      <c r="G17" s="93" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7423,10 +7457,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="102" t="s">
         <v>339</v>
-      </c>
-      <c r="B19" s="102" t="s">
-        <v>340</v>
       </c>
       <c r="C19" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7437,10 +7471,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="102" t="s">
         <v>341</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>342</v>
       </c>
       <c r="C20" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7451,10 +7485,10 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C21" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7465,10 +7499,10 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C22" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7479,10 +7513,10 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7493,10 +7527,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7507,10 +7541,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="B25" s="102" t="s">
         <v>354</v>
-      </c>
-      <c r="B25" s="102" t="s">
-        <v>355</v>
       </c>
       <c r="C25" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7521,10 +7555,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7535,10 +7569,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="93" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="102" t="s">
         <v>383</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>384</v>
       </c>
       <c r="C27" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7549,10 +7583,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7563,10 +7597,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7577,10 +7611,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7591,10 +7625,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7605,10 +7639,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7619,10 +7653,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7633,10 +7667,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7647,10 +7681,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="102" t="s">
         <v>356</v>
-      </c>
-      <c r="B35" s="102" t="s">
-        <v>357</v>
       </c>
       <c r="C35" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7661,10 +7695,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="93" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C36" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7675,10 +7709,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7689,10 +7723,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="102" t="s">
         <v>385</v>
-      </c>
-      <c r="B38" s="102" t="s">
-        <v>386</v>
       </c>
       <c r="C38" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7703,10 +7737,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C39" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7717,10 +7751,10 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="102" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C40" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7731,10 +7765,10 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="102" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C41" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7745,10 +7779,10 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C42" s="104" t="str">
         <f t="shared" si="0"/>
@@ -7759,10 +7793,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C43" s="104" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7775,10 +7809,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C44" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7791,10 +7825,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C45" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7807,10 +7841,10 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C46" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7823,10 +7857,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C47" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7839,10 +7873,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="102" t="s">
         <v>343</v>
-      </c>
-      <c r="B48" s="102" t="s">
-        <v>344</v>
       </c>
       <c r="C48" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7855,10 +7889,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="102" t="s">
         <v>358</v>
-      </c>
-      <c r="B49" s="102" t="s">
-        <v>359</v>
       </c>
       <c r="C49" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7871,10 +7905,10 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="102" t="s">
         <v>345</v>
-      </c>
-      <c r="B50" s="102" t="s">
-        <v>346</v>
       </c>
       <c r="C50" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7887,10 +7921,10 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="102" t="s">
         <v>347</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>348</v>
       </c>
       <c r="C51" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7903,10 +7937,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="B52" s="102" t="s">
         <v>387</v>
-      </c>
-      <c r="B52" s="102" t="s">
-        <v>388</v>
       </c>
       <c r="C52" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7919,10 +7953,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="102" t="s">
         <v>360</v>
-      </c>
-      <c r="B53" s="102" t="s">
-        <v>361</v>
       </c>
       <c r="C53" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7935,10 +7969,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54" s="102" t="s">
         <v>362</v>
-      </c>
-      <c r="B54" s="102" t="s">
-        <v>363</v>
       </c>
       <c r="C54" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7951,10 +7985,10 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C55" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7967,10 +8001,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7983,10 +8017,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" s="104" t="str">
         <f t="shared" si="1"/>
@@ -7999,10 +8033,10 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C58" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8015,10 +8049,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B59" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C59" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8031,10 +8065,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C60" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8047,10 +8081,10 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8063,10 +8097,10 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="B62" s="102" t="s">
         <v>349</v>
-      </c>
-      <c r="B62" s="102" t="s">
-        <v>350</v>
       </c>
       <c r="C62" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8079,10 +8113,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="B63" s="102" t="s">
         <v>364</v>
-      </c>
-      <c r="B63" s="102" t="s">
-        <v>365</v>
       </c>
       <c r="C63" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8095,10 +8129,10 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="102" t="s">
         <v>389</v>
-      </c>
-      <c r="B64" s="102" t="s">
-        <v>390</v>
       </c>
       <c r="C64" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8111,10 +8145,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C65" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8127,10 +8161,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="102" t="s">
         <v>366</v>
-      </c>
-      <c r="B66" s="102" t="s">
-        <v>367</v>
       </c>
       <c r="C66" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8143,10 +8177,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="102" t="s">
         <v>368</v>
-      </c>
-      <c r="B67" s="102" t="s">
-        <v>369</v>
       </c>
       <c r="C67" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8159,10 +8193,10 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B68" s="102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C68" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8175,10 +8209,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69" s="102" t="s">
         <v>391</v>
-      </c>
-      <c r="B69" s="102" t="s">
-        <v>392</v>
       </c>
       <c r="C69" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8191,10 +8225,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" s="102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C70" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8207,10 +8241,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="B71" s="102" t="s">
         <v>370</v>
-      </c>
-      <c r="B71" s="102" t="s">
-        <v>371</v>
       </c>
       <c r="C71" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8223,10 +8257,10 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B72" s="102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8239,10 +8273,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="93" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="102" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" s="102" t="s">
-        <v>373</v>
       </c>
       <c r="C73" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8255,10 +8289,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B74" s="102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C74" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8271,10 +8305,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" s="102" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C75" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8287,10 +8321,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="102" t="s">
         <v>374</v>
-      </c>
-      <c r="B76" s="102" t="s">
-        <v>375</v>
       </c>
       <c r="C76" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8303,10 +8337,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" s="102" t="s">
         <v>376</v>
-      </c>
-      <c r="B77" s="102" t="s">
-        <v>377</v>
       </c>
       <c r="C77" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8319,10 +8353,10 @@
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C78" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8335,10 +8369,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B79" s="102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C79" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8351,10 +8385,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C80" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8367,10 +8401,10 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" s="102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8383,10 +8417,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B82" s="102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C82" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8399,10 +8433,10 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="93" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="102" t="s">
         <v>329</v>
-      </c>
-      <c r="B83" s="102" t="s">
-        <v>330</v>
       </c>
       <c r="C83" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8415,10 +8449,10 @@
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B84" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C84" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8431,10 +8465,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="93" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B85" s="102" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C85" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8447,10 +8481,10 @@
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8463,10 +8497,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B87" s="102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8479,10 +8513,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" s="102" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C88" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8495,10 +8529,10 @@
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B89" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C89" s="104" t="str">
         <f t="shared" si="1"/>
@@ -8511,10 +8545,10 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B90" s="102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C90" s="104" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8527,10 +8561,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="102" t="s">
         <v>395</v>
-      </c>
-      <c r="B91" s="102" t="s">
-        <v>396</v>
       </c>
       <c r="C91" s="104" t="str">
         <f t="shared" si="2"/>
@@ -8543,10 +8577,10 @@
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="93" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B92" s="102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="104" t="str">
         <f t="shared" si="2"/>
@@ -8559,10 +8593,10 @@
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B93" s="102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C93" s="104" t="str">
         <f t="shared" si="2"/>
@@ -8575,10 +8609,10 @@
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B94" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="104" t="str">
         <f t="shared" si="2"/>
@@ -8647,216 +8681,216 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E1" s="105"/>
       <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B41" s="107" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="107"/>
       <c r="D41" s="107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E41" s="107"/>
     </row>
@@ -8869,47 +8903,47 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="106" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B43" s="106" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="106" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B44" s="106" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="106" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B45" s="106" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="107"/>
       <c r="D45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B46" s="106" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Wyoming/WaterAllocation/WY_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB794AF-ABD2-40F3-B65E-C00B6D00CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2B8B9-15E2-4133-8899-E4DFD370F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="756" windowWidth="23040" windowHeight="12120" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
   <si>
     <t>Name</t>
   </si>
@@ -1351,12 +1351,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Adjudicated</t>
-  </si>
-  <si>
-    <t>http://library.wrds.uwyo.edu/wrp/90-17/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
@@ -1426,9 +1420,6 @@
     <t>data was made avaiable by a temporary google drive link.  Files were saved locacly and uploaded to GiHub.</t>
   </si>
   <si>
-    <t>Water allocations points of diversions for surface water springs and ground water wells.</t>
-  </si>
-  <si>
     <t>Ground Water Recharge (Aesthetics)</t>
   </si>
   <si>
@@ -1622,6 +1613,18 @@
   </si>
   <si>
     <t>WYwr_WR + counter</t>
+  </si>
+  <si>
+    <t>Type File Geodatabase Feature Class Tags Water, State of Wyoming, Water Development Office, Wells, e-Permit. Summary This dataset provides the Wyoming Water Development Office a statewide dataset of water right locations for groundwater wells. April, 2020. GCS_North_American_1983. 1:24,000. Description These data represent ground water wells with greater than 500 gallons per minute (GPM) permitted capacity, and which do not have stock watering or coalbed methane as their only beneficial use. All data are sourced from the Wyoming State Engineer's Office (SEO), e-Permit download of 03/02/2019. These data may be linked to other water rights-based datasets, including SEO water rights data and Wyoming Water Development Office (WDO) place of use (POU) feature classes, via attribute WR_Number. Credits Created by Confluence Consulting Inc of Bozeman, Montana. Wyoming State Engineer's Office, e-permit download data. Use limitations These GIS data were compiled from Wyoming Water Development Commission (WWDC) funded projects, Wyoming State Engineer’s Office (SEO) records, and/or other sources for the use and convenience of the public. These data may not be complete or accurately represent the conditions on the ground, and no decision involving a risk of economic loss or physical injury should be made in reliance thereon. The WWDC and the Water Resources Data System (WRDS) do not endorse or recommend the use of these data for any other purpose than originally developed and are providing these data "as is," and disclaim any and all warranties, whether expressed or implied, including (without limitation) any implied warranties of merchantability or fitness for a particular purpose. Users of this information assume the entire risk to the use of these data and should review or consult the primary data and information sources to ascertain the reliability or usability of the information. Comprehensive water rights information is only available through researching the water rights on file with the SEO and Board of Control. The State of Wyoming and its agencies assume no liability associated with the use or misuse of this information and specifically retain sovereign immunity and all defenses available to them by law. Extent West -111.044988 East -104.049287 North 44.996573 South 41.002113 Scale Range Maximum (zoomed in) 1:5,000 Minimum (zoomed out) 1:625,000</t>
+  </si>
+  <si>
+    <t>Wyoming Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://waterplan.state.wy.us/plan/bear/2001/techmemos/waterlaw.pdf</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1872,14 +1875,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2487,7 +2482,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2606,9 +2601,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2714,13 +2706,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2748,30 +2734,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2781,49 +2763,45 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2872,7 +2850,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3260,73 +3238,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="117" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="117" t="s">
-        <v>440</v>
+      <c r="B2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>460</v>
+      <c r="B4" s="94" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="111" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="117" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="117" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="117" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="117" t="s">
-        <v>510</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="117" t="s">
-        <v>505</v>
+      <c r="B17" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
-        <v>520</v>
+      <c r="B18" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3339,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,32 +3337,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3410,54 +3388,54 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="71">
+      <c r="E3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="70">
         <v>11</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>521</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3474,22 +3452,22 @@
       <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3506,22 +3484,22 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="73">
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="72">
         <v>0.5</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3538,22 +3516,22 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="72" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="71" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3570,22 +3548,22 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="74" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3602,20 +3580,20 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="72" t="s">
+      <c r="E9" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="74"/>
+      <c r="J9" s="71" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3632,26 +3610,26 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="71" t="s">
+      <c r="E10" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="71" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
@@ -3664,22 +3642,22 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="E11" s="127" t="s">
+        <v>526</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="71" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3696,37 +3674,40 @@
       <c r="D12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="E12" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="87"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="87"/>
+      <c r="E17" s="84"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{EC02417B-5E15-4F3B-BD46-73B0F2C5D9D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3808,13 +3789,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="71">
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="70">
         <v>16</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3831,8 +3812,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>522</v>
+      <c r="E4" s="85" t="s">
+        <v>519</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3840,13 +3821,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3863,18 +3844,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="91">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="71">
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="70">
         <v>1</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3891,22 +3872,22 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="96" t="s">
-        <v>439</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="71" t="s">
+      <c r="E6" s="91" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3923,22 +3904,22 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="71" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="71" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3955,22 +3936,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="71" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3987,22 +3968,22 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="71" t="s">
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4019,22 +4000,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="91">
         <v>11</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="71">
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="70">
         <v>10</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="71" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4051,22 +4032,22 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="71" t="s">
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="71" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4083,22 +4064,22 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="71" t="s">
+      <c r="E12" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4115,22 +4096,22 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="96" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="71" t="s">
+      <c r="E13" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="71" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4227,13 +4208,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="75">
+      <c r="H3" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="74">
         <v>1</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4250,8 +4231,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>523</v>
+      <c r="E4" s="85" t="s">
+        <v>520</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4259,13 +4240,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4282,8 +4263,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="100" t="s">
-        <v>444</v>
+      <c r="E5" s="95" t="s">
+        <v>442</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4291,13 +4272,13 @@
       <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4314,22 +4295,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="E6" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4346,22 +4327,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="97" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="E7" s="92" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="71" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4378,22 +4359,22 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="98" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="75" t="s">
+      <c r="E8" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4410,22 +4391,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="E9" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="71" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4442,22 +4423,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="75" t="s">
+      <c r="E10" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="71" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4474,22 +4455,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="E11" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="71" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4507,21 +4488,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4587,32 +4568,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4640,42 +4621,42 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="71">
+      <c r="G3" s="63"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70">
         <v>34658</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>448</v>
-      </c>
-      <c r="F4" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="71" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="J4" s="115" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4692,20 +4673,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="122" t="s">
+      <c r="F5" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="115" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4722,20 +4703,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="122" t="s">
+      <c r="F6" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="115" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4752,20 +4733,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="71" t="s">
+      <c r="F7" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="115" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4785,17 +4766,17 @@
       <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="71" t="s">
+      <c r="F8" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="115" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4812,50 +4793,50 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="123" t="s">
-        <v>519</v>
-      </c>
-      <c r="F9" s="123" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="71">
+      <c r="E9" s="116" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70">
         <v>17839</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="115" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="132" t="s">
+      <c r="C10" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="115" t="s">
-        <v>502</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="71" t="s">
+      <c r="E10" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>511</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="122" t="s">
+      <c r="J10" s="115" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4900,32 +4881,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4960,39 +4941,39 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="75">
+      <c r="H3" s="69"/>
+      <c r="I3" s="74">
         <v>39035</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="75" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="69"/>
+      <c r="I4" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5010,19 +4991,19 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5040,19 +5021,19 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5072,17 +5053,17 @@
       <c r="E7" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="79" t="s">
+      <c r="F7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5099,20 +5080,20 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>4326</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="75" t="s">
+      <c r="F8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5132,15 +5113,15 @@
       <c r="E9" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="72" t="s">
+      <c r="F9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="71" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5160,17 +5141,17 @@
       <c r="E10" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="72" t="s">
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="71" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5190,17 +5171,17 @@
       <c r="E11" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="79" t="s">
+      <c r="F11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5220,17 +5201,17 @@
       <c r="E12" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="79" t="s">
+      <c r="F12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5250,17 +5231,17 @@
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G13" s="46" t="s">
+      <c r="F13" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="75" t="s">
+      <c r="H13" s="77"/>
+      <c r="I13" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="71" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5280,17 +5261,17 @@
       <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="75">
+      <c r="H14" s="77"/>
+      <c r="I14" s="74">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="71" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5310,17 +5291,17 @@
       <c r="E15" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="72" t="s">
+      <c r="F15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="71" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5340,17 +5321,17 @@
       <c r="E16" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="72" t="s">
+      <c r="F16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="71" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5367,8 +5348,8 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>502</v>
+      <c r="E17" s="41" t="s">
+        <v>499</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5376,11 +5357,11 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82" t="s">
+      <c r="H17" s="78"/>
+      <c r="I17" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -5396,17 +5377,17 @@
       <c r="E18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>502</v>
+      <c r="F18" s="41" t="s">
+        <v>499</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" s="69"/>
+      <c r="I18" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5424,19 +5405,19 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="75">
+        <v>513</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="74">
         <v>3703994</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="71" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5456,17 +5437,17 @@
       <c r="E20" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="75" t="s">
+      <c r="F20" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="69"/>
+      <c r="I20" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5486,17 +5467,17 @@
       <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>502</v>
+      <c r="F21" s="41" t="s">
+        <v>499</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="I21" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="71" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5514,19 +5495,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="75" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="I22" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5546,17 +5527,17 @@
       <c r="E23" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="79" t="s">
+      <c r="F23" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5573,7 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5593,32 +5574,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -5647,13 +5628,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="75">
+      <c r="H3" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="74">
         <v>50004</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5679,13 +5660,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="75">
+      <c r="H4" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="74">
         <v>43</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5711,13 +5692,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="75">
+      <c r="H5" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="74">
         <v>1</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5743,13 +5724,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="75">
+      <c r="H6" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="74">
         <v>39035</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5775,13 +5756,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="75">
+      <c r="H7" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="74">
         <v>63</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5807,19 +5788,19 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="75">
+      <c r="H8" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="74">
         <v>371091</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5830,14 +5811,14 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="134" t="s">
-        <v>526</v>
+      <c r="E9" s="41" t="s">
+        <v>523</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="72"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -5852,8 +5833,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="133" t="s">
-        <v>521</v>
+      <c r="E10" s="126" t="s">
+        <v>518</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5861,13 +5842,13 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="72" t="s">
+      <c r="H10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="71" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5884,8 +5865,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="65" t="s">
-        <v>523</v>
+      <c r="E11" s="64" t="s">
+        <v>520</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5893,13 +5874,13 @@
       <c r="G11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="72" t="s">
+      <c r="H11" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="71" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5916,8 +5897,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>454</v>
+      <c r="E12" s="41" t="s">
+        <v>452</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5925,13 +5906,13 @@
       <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="72" t="s">
+      <c r="H12" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="71" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5948,8 +5929,8 @@
       <c r="D13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="133" t="s">
-        <v>522</v>
+      <c r="E13" s="126" t="s">
+        <v>519</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5957,45 +5938,45 @@
       <c r="G13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="72" t="s">
+      <c r="H13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="71" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="72" t="s">
+      <c r="C14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="71" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6021,13 +6002,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="75">
+      <c r="H15" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="74">
         <v>5363</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="71" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6053,13 +6034,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="75" t="s">
+      <c r="H16" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6085,13 +6066,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="75" t="s">
+      <c r="H17" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6117,13 +6098,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="75" t="s">
+      <c r="H18" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6149,13 +6130,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="75" t="s">
+      <c r="H19" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="79" t="s">
+      <c r="J19" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6181,13 +6162,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="75" t="s">
+      <c r="H20" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="71" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6213,13 +6194,13 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="79" t="s">
+      <c r="H21" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6245,18 +6226,18 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="75">
+      <c r="H22" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="74">
         <v>5200</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -6277,13 +6258,13 @@
       <c r="G23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="75">
+      <c r="H23" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="74">
         <v>1</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="71" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6303,19 +6284,19 @@
       <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>502</v>
+      <c r="F24" s="41" t="s">
+        <v>499</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="H24" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="75" t="s">
+        <v>457</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="71" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6335,19 +6316,19 @@
       <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="75" t="s">
+      <c r="F25" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="71" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6365,21 +6346,21 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="72" t="s">
+      <c r="J26" s="71" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6390,7 +6371,7 @@
       <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -6399,19 +6380,19 @@
       <c r="E27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="F27" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="71" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6437,13 +6418,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="72" t="s">
+      <c r="H28" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="71" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6461,7 +6442,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6469,13 +6450,13 @@
       <c r="G29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="85">
+      <c r="H29" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="82">
         <v>44196</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="71" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6493,7 +6474,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6501,13 +6482,13 @@
       <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="85">
+      <c r="H30" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="82">
         <v>43831</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="71" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6525,7 +6506,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -6533,18 +6514,18 @@
       <c r="G31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="75" t="s">
+      <c r="H31" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="71" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>243</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -6565,13 +6546,13 @@
       <c r="G32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="75">
+      <c r="H32" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="74">
         <v>0</v>
       </c>
-      <c r="J32" s="72" t="s">
+      <c r="J32" s="71" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6582,28 +6563,28 @@
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="H33" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="72" t="s">
+      <c r="F33" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="71" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6629,13 +6610,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="75" t="s">
+      <c r="H34" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="79" t="s">
+      <c r="J34" s="76" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6661,13 +6642,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="75" t="s">
+      <c r="H35" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="71" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6693,13 +6674,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="75" t="s">
+      <c r="H36" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6710,13 +6691,13 @@
       <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="127">
+      <c r="E37" s="120">
         <v>44644</v>
       </c>
       <c r="F37" s="24" t="s">
@@ -6725,13 +6706,13 @@
       <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="86">
+      <c r="H37" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="83">
         <v>43874</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="71" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6757,18 +6738,18 @@
       <c r="G38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="86">
+      <c r="H38" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="83">
         <v>33187</v>
       </c>
-      <c r="J38" s="79" t="s">
+      <c r="J38" s="76" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>244</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -6789,9 +6770,9 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="79"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
@@ -6815,13 +6796,13 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="72" t="s">
+      <c r="H40" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="71" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6842,16 +6823,16 @@
         <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="H41" s="80"/>
-      <c r="I41" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="77"/>
+      <c r="I41" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="71" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6877,13 +6858,13 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="75" t="s">
+      <c r="H42" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="71" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6909,19 +6890,19 @@
       <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="79" t="s">
+      <c r="H43" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="76" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6933,17 +6914,17 @@
         <v>20</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="G44" s="128"/>
-      <c r="H44" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="120" t="s">
-        <v>512</v>
-      </c>
-      <c r="J44" s="121" t="s">
-        <v>513</v>
+        <v>515</v>
+      </c>
+      <c r="G44" s="121"/>
+      <c r="H44" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="113" t="s">
+        <v>509</v>
+      </c>
+      <c r="J44" s="114" t="s">
+        <v>510</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6974,13 +6955,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="72" t="s">
+      <c r="H45" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="71" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7006,19 +6987,19 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="75" t="s">
+      <c r="H46" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="79" t="s">
+      <c r="J46" s="76" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>105</v>
@@ -7030,7 +7011,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7038,13 +7019,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="75" t="s">
+      <c r="H47" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="71" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7070,13 +7051,13 @@
       <c r="G48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="75" t="s">
+      <c r="H48" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7106,1548 +7087,1548 @@
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="90" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="96" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="90"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="104" t="str">
+      <c r="C3" s="99" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"AESCNG" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="93" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="89" t="s">
         <v>402</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="89" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="104" t="str">
+      <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"AESFIS" : "Fish Propagation (Aesthetics)",</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="93" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="89" t="s">
         <v>404</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="89" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="102" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="104" t="str">
+      <c r="B5" s="97" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AESGWR" : "Ground Water Recharge (Aesthetics)",</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="93" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="89" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="97" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="104" t="str">
+      <c r="C6" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AESREC" : "Recreation (Aesthetics)",</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="93" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="89" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="104" t="str">
+      <c r="C7" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AESSTK" : "Stock (Aesthetics)",</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="93" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="89" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="89" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>397</v>
       </c>
-      <c r="C8" s="104" t="str">
+      <c r="C8" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AESWET" : "Wetlands (Aesthetics)",</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="93" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="89" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="89" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="89" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="104" t="str">
+      <c r="C9" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AESWIL" : "Wildlife (Aesthetics)",</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="93" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="89" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="104" t="str">
+      <c r="C10" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"AQU" : "Aquaculture",</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="93" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="89" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="97" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="104" t="str">
+      <c r="C11" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"BOT" : "Bottling Water",</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="93" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="89" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="104" t="str">
+      <c r="B12" s="97" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CAG" : "Commercial Agriculture",</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="93" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="G12" s="93" t="s">
+      <c r="G12" s="89" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="104" t="str">
+      <c r="B13" s="97" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="93" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="89" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="97" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CHE" : "Chemical",</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="93" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="89" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="89" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="104" t="str">
+      <c r="C15" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CIS" : "Consumptive Instream Flow",</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="93" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="89" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="104" t="str">
+      <c r="C16" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CMU" : "Combined Uses",</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="93" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="89" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="104" t="str">
+      <c r="C17" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CNG_SW" : "Coal Bed Natural Gas",</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="93" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="89" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="104" t="str">
+      <c r="C18" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"COM" : "Commercial",</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="93" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="89" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="97" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="104" t="str">
+      <c r="C19" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"CUL" : "Culinary",</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="97" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="104" t="str">
+      <c r="C20" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DAI" : "Dairy",</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="B21" s="102" t="s">
-        <v>466</v>
-      </c>
-      <c r="C21" s="104" t="str">
+      <c r="B21" s="97" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DEW" : "Mine Dewatering",</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="102" t="s">
-        <v>467</v>
-      </c>
-      <c r="C22" s="104" t="str">
+      <c r="B22" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_GW" : "Domestic - Ground Water",</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>468</v>
-      </c>
-      <c r="C23" s="104" t="str">
+      <c r="B23" s="97" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DOM_SW" : "Domestic - Surface Water",</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="102" t="s">
-        <v>469</v>
-      </c>
-      <c r="C24" s="104" t="str">
+      <c r="B24" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="C24" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DPA" : "Domestic (Phase 2 Award)",</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="97" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="104" t="str">
+      <c r="C25" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DRI" : "Drilling",</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="104" t="str">
+      <c r="C26" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DSP" : "Domestic Supply",</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="89" t="s">
         <v>382</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="C27" s="104" t="str">
+      <c r="C27" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"DTA" : "Dust Abatement",</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="104" t="str">
+      <c r="C28" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"ECAP" : "Existing Capacity",</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="104" t="str">
+      <c r="C29" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"ERO" : "Erosion Control",</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="104" t="str">
+      <c r="C30" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"FIR" : "Fire Protection",</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="89" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="102" t="s">
-        <v>470</v>
-      </c>
-      <c r="C31" s="104" t="str">
+      <c r="B31" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"FIS" : "Fish Propagation",</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="104" t="str">
+      <c r="C32" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"FLO" : "Flood Control",</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="104" t="str">
+      <c r="C33" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"FTH" : "Flow Through",</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="104" t="str">
+      <c r="C34" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"GWR" : "Ground Water Recharge",</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="97" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="104" t="str">
+      <c r="C35" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"HEX" : "Heat Extraction",</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="B36" s="102" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="104" t="str">
+      <c r="B36" s="97" t="s">
+        <v>468</v>
+      </c>
+      <c r="C36" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"HWY" : "Highway Construction",</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="104" t="str">
+      <c r="C37" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"HYD" : "Hydropower",</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="97" t="s">
         <v>385</v>
       </c>
-      <c r="C38" s="104" t="str">
+      <c r="C38" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"HYT" : "Hydrostatic Testing",</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="104" t="str">
+      <c r="C39" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"ICE" : "Ice Cutting",</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="B40" s="102" t="s">
-        <v>472</v>
-      </c>
-      <c r="C40" s="104" t="str">
+      <c r="B40" s="97" t="s">
+        <v>469</v>
+      </c>
+      <c r="C40" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"IFA" : "Instream Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="102" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" s="104" t="str">
+      <c r="B41" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="C41" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"IND_GW" : "Industrial - Ground Water",</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="B42" s="102" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="104" t="str">
+      <c r="B42" s="97" t="s">
+        <v>471</v>
+      </c>
+      <c r="C42" s="99" t="str">
         <f t="shared" si="0"/>
         <v>"IND_SW" : "Industrial - Surface Water",</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="102" t="s">
-        <v>475</v>
-      </c>
-      <c r="C43" s="104" t="str">
+      <c r="B43" s="97" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" s="99" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
         <v>"IRR_GW" : "Irrigation - Ground Water",</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="89" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="C44" s="104" t="str">
+      <c r="B44" s="97" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"IRR_SW" : "Irrigation - Surface Water",</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="G44" s="41"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="G44" s="40"/>
       <c r="H44"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="97" t="s">
         <v>417</v>
       </c>
-      <c r="C45" s="104" t="str">
+      <c r="C45" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"ISF" : "Instream Flow",</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="G45" s="41"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="G45" s="40"/>
       <c r="H45"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="89" t="s">
         <v>303</v>
       </c>
-      <c r="B46" s="102" t="s">
-        <v>477</v>
-      </c>
-      <c r="C46" s="104" t="str">
+      <c r="B46" s="97" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"LAK" : "Maintain Natural Lake Level (Phase 2 Award)",</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="102" t="s">
-        <v>478</v>
-      </c>
-      <c r="C47" s="104" t="str">
+      <c r="B47" s="97" t="s">
+        <v>475</v>
+      </c>
+      <c r="C47" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"LAW" : "Large Scale Landscape",</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="G47" s="41"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="G47" s="40"/>
       <c r="H47"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="89" t="s">
         <v>342</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="104" t="str">
+      <c r="C48" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MAI" : "Maintenance (Equipment Washing)",</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="G48" s="41"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="97" t="s">
         <v>358</v>
       </c>
-      <c r="C49" s="104" t="str">
+      <c r="C49" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MAN" : "Manufacturing",</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="G49" s="40"/>
       <c r="H49"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="89" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="104" t="str">
+      <c r="C50" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MEC" : "Mechanical ",</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="G50" s="41"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="97" t="s">
         <v>347</v>
       </c>
-      <c r="C51" s="104" t="str">
+      <c r="C51" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MED" : "Medicinal",</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="G51" s="41"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="89" t="s">
         <v>386</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="97" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="104" t="str">
+      <c r="C52" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MEM" : "Municipal (Emergency)",</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="G52" s="40"/>
       <c r="H52"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="C53" s="104" t="str">
+      <c r="C53" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MIL" : "Milling",</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="G53" s="41"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="G53" s="40"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="104" t="str">
+      <c r="C54" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MIN" : "Mining",</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="G54" s="41"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="G54" s="40"/>
       <c r="H54"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="93" t="s">
+      <c r="A55" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="B55" s="102" t="s">
-        <v>479</v>
-      </c>
-      <c r="C55" s="104" t="str">
+      <c r="B55" s="97" t="s">
+        <v>476</v>
+      </c>
+      <c r="C55" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MIS" : "Miscellaneous - Ground Water",</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="G55" s="40"/>
       <c r="H55"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="B56" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="C56" s="104" t="str">
+      <c r="B56" s="97" t="s">
+        <v>477</v>
+      </c>
+      <c r="C56" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MON" : "Monitor",</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="G56" s="41"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="G56" s="40"/>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="B57" s="102" t="s">
-        <v>481</v>
-      </c>
-      <c r="C57" s="104" t="str">
+      <c r="B57" s="97" t="s">
+        <v>478</v>
+      </c>
+      <c r="C57" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_GW" : "Municipal - Ground Water",</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="G57" s="41"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="G57" s="40"/>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="93" t="s">
+      <c r="A58" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="102" t="s">
-        <v>482</v>
-      </c>
-      <c r="C58" s="104" t="str">
+      <c r="B58" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="C58" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"MUN_SW" : "Municipal - Surface Water",</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="G58" s="40"/>
       <c r="H58"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="B59" s="102" t="s">
-        <v>483</v>
-      </c>
-      <c r="C59" s="104" t="str">
+      <c r="B59" s="97" t="s">
+        <v>480</v>
+      </c>
+      <c r="C59" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"NAT" : "Natural Flow (Phase 2 Award)",</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="G59" s="41"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="G59" s="40"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="102" t="s">
-        <v>484</v>
-      </c>
-      <c r="C60" s="104" t="str">
+      <c r="B60" s="97" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"O&amp;G" : "Oil and Gas Well Drilling",</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="G60" s="41"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="G60" s="40"/>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="104" t="str">
+      <c r="C61" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"OTH" : "Other",</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="G61" s="40"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="C62" s="104" t="str">
+      <c r="C62" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_CM" : "Other - Commercial",</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="G62" s="41"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="G62" s="40"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="89" t="s">
         <v>363</v>
       </c>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="C63" s="104" t="str">
+      <c r="C63" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_IN" : "Other - Industrial",</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="G63" s="41"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="G63" s="40"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="93" t="s">
+      <c r="A64" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="97" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="104" t="str">
+      <c r="C64" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"OTH_TM" : "Other - Temporary",</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="G64" s="41"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="G64" s="40"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="89" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="102" t="s">
-        <v>485</v>
-      </c>
-      <c r="C65" s="104" t="str">
+      <c r="B65" s="97" t="s">
+        <v>482</v>
+      </c>
+      <c r="C65" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"P&amp;S" : "Potable and Sanitary Supply",</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="G65" s="41"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="G65" s="40"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="89" t="s">
         <v>365</v>
       </c>
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="C66" s="104" t="str">
+      <c r="C66" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"PCT" : "Pollution Control",</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="G66" s="41"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="G66" s="40"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="89" t="s">
         <v>367</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="97" t="s">
         <v>368</v>
       </c>
-      <c r="C67" s="104" t="str">
+      <c r="C67" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"POW" : "Power",</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="G67" s="41"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="G67" s="40"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="104" t="str">
+      <c r="C68" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"RAI" : "Railroad",</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="G68" s="41"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="G68" s="40"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="89" t="s">
         <v>390</v>
       </c>
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="97" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="104" t="str">
+      <c r="C69" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"RDC" : "Road Construction",</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="G69" s="41"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="G69" s="40"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="93" t="s">
+      <c r="A70" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="104" t="str">
+      <c r="C70" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"REC" : "Recreation",</v>
       </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="G70" s="41"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="G70" s="40"/>
       <c r="H70"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="102" t="s">
+      <c r="B71" s="97" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="104" t="str">
+      <c r="C71" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"REF" : "Refining",</v>
       </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="G71" s="41"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="G71" s="40"/>
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="C72" s="104" t="str">
+      <c r="C72" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"RES" : "Reservoir Supply",</v>
       </c>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="G72" s="41"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="G72" s="40"/>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="93" t="s">
+      <c r="A73" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="B73" s="102" t="s">
+      <c r="B73" s="97" t="s">
         <v>372</v>
       </c>
-      <c r="C73" s="104" t="str">
+      <c r="C73" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"REW" : "Reclamation Watering",</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="G73" s="41"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="G73" s="40"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="93" t="s">
+      <c r="A74" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="102" t="s">
-        <v>486</v>
-      </c>
-      <c r="C74" s="104" t="str">
+      <c r="B74" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="C74" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SDG" : "Gpm For Domestic or Stock",</v>
       </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="G74" s="41"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="G74" s="40"/>
       <c r="H74"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="93" t="s">
+      <c r="A75" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="102" t="s">
-        <v>487</v>
-      </c>
-      <c r="C75" s="104" t="str">
+      <c r="B75" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="C75" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SDU" : "Stock and Domestic",</v>
       </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="G75" s="41"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="G75" s="40"/>
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="93" t="s">
+      <c r="A76" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="B76" s="102" t="s">
+      <c r="B76" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="C76" s="104" t="str">
+      <c r="C76" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SED" : "Sediment Control",</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="G76" s="41"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="G76" s="40"/>
       <c r="H76"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="93" t="s">
+      <c r="A77" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="97" t="s">
         <v>376</v>
       </c>
-      <c r="C77" s="104" t="str">
+      <c r="C77" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SNO" : "Snow Making",</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="G77" s="41"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="G77" s="40"/>
       <c r="H77"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="104" t="str">
+      <c r="C78" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"STE" : "Stream",</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="G78" s="41"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="G78" s="40"/>
       <c r="H78"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="93" t="s">
+      <c r="A79" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="C79" s="104" t="str">
+      <c r="C79" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"STK" : "Stock Watering",</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="G79" s="41"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="G79" s="40"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="B80" s="102" t="s">
+      <c r="B80" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="104" t="str">
+      <c r="C80" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"STO" : "Stock",</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="G80" s="41"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="G80" s="40"/>
       <c r="H80"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="89" t="s">
         <v>392</v>
       </c>
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="104" t="str">
+      <c r="C81" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"STW" : "Stock Watering",</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="G81" s="41"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="G81" s="40"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="89" t="s">
         <v>327</v>
       </c>
-      <c r="B82" s="102" t="s">
-        <v>488</v>
-      </c>
-      <c r="C82" s="104" t="str">
+      <c r="B82" s="97" t="s">
+        <v>485</v>
+      </c>
+      <c r="C82" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SWD" : "Subdivision",</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="G82" s="41"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="G82" s="40"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="C83" s="104" t="str">
+      <c r="C83" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"SWP" : "Stock Water Pipeline",</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="G83" s="41"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="G83" s="40"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="104" t="str">
+      <c r="C84" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"TEM" : "Temporary",</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="G84" s="41"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="G84" s="40"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="93" t="s">
+      <c r="A85" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="B85" s="102" t="s">
-        <v>463</v>
-      </c>
-      <c r="C85" s="104" t="str">
+      <c r="B85" s="97" t="s">
+        <v>460</v>
+      </c>
+      <c r="C85" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"TENL" : "Total Enlargement",</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="G85" s="41"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="G85" s="40"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="B86" s="102" t="s">
+      <c r="B86" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="C86" s="104" t="str">
+      <c r="C86" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"TRA" : "Transportation",</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="G86" s="41"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="G86" s="40"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="104" t="str">
+      <c r="C87" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"TST" : "Test Well",</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="G87" s="41"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="G87" s="40"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="B88" s="102" t="s">
-        <v>489</v>
-      </c>
-      <c r="C88" s="104" t="str">
+      <c r="B88" s="97" t="s">
+        <v>486</v>
+      </c>
+      <c r="C88" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"TWR" : "Tree Watering",</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="G88" s="41"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="G88" s="40"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="97" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="104" t="str">
+      <c r="C89" s="99" t="str">
         <f t="shared" si="1"/>
         <v>"UTL" : "Utilities",</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="G89" s="41"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="G89" s="40"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="102" t="s">
-        <v>490</v>
-      </c>
-      <c r="C90" s="104" t="str">
+      <c r="B90" s="97" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="99" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
         <v>"W&amp;S" : "Wild and Scenic",</v>
       </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="G90" s="41"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="G90" s="40"/>
       <c r="H90"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="89" t="s">
         <v>394</v>
       </c>
-      <c r="B91" s="102" t="s">
+      <c r="B91" s="97" t="s">
         <v>395</v>
       </c>
-      <c r="C91" s="104" t="str">
+      <c r="C91" s="99" t="str">
         <f t="shared" si="2"/>
         <v>"WDR" : "Well Drilling",</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="G91" s="41"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="G91" s="40"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="104" t="str">
+      <c r="C92" s="99" t="str">
         <f t="shared" si="2"/>
         <v>"WET" : "Wetlands",</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="G92" s="41"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="G92" s="40"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="93" t="s">
+      <c r="A93" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="102" t="s">
-        <v>491</v>
-      </c>
-      <c r="C93" s="104" t="str">
+      <c r="B93" s="97" t="s">
+        <v>488</v>
+      </c>
+      <c r="C93" s="99" t="str">
         <f t="shared" si="2"/>
         <v>"WHL" : "Water Hauls",</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="G93" s="41"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="G93" s="40"/>
       <c r="H93"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="B94" s="102" t="s">
+      <c r="B94" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="C94" s="104" t="str">
+      <c r="C94" s="99" t="str">
         <f t="shared" si="2"/>
         <v>"WL" : "Wildlife",</v>
       </c>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="G94" s="41"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="G94" s="40"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="94"/>
-      <c r="B95" s="94"/>
-      <c r="G95" s="41"/>
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="G95" s="40"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="94"/>
-      <c r="B96" s="94"/>
-      <c r="G96" s="41"/>
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="G96" s="40"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="94"/>
-      <c r="B97" s="94"/>
-      <c r="G97" s="41"/>
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="G97" s="40"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="94"/>
-      <c r="B98" s="94"/>
+      <c r="A98"/>
+      <c r="B98"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
+      <c r="A99"/>
+      <c r="B99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B94">
@@ -8680,11 +8661,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="A1" s="100" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8882,64 +8863,64 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" s="102"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" s="101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="B44" s="101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="101" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="107" t="e">
+      <c r="B45" s="101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107" t="s">
-        <v>498</v>
-      </c>
-      <c r="E41" s="107"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="106" t="s">
-        <v>497</v>
-      </c>
-      <c r="B43" s="106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
-        <v>494</v>
-      </c>
-      <c r="B44" s="106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="106" t="s">
+      <c r="C45" s="102"/>
+      <c r="D45" t="s">
         <v>496</v>
       </c>
-      <c r="B45" s="106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C45" s="107"/>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
-        <v>495</v>
-      </c>
-      <c r="B46" s="106" t="e">
+      <c r="A46" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="B46" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
@@ -8947,8 +8928,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
-      <c r="B47" s="106"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2331">
